--- a/Tables/Price_UR_Test.xlsx
+++ b/Tables/Price_UR_Test.xlsx
@@ -382,7 +382,7 @@
         <v>-2.137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="4">

--- a/Tables/Price_UR_Test.xlsx
+++ b/Tables/Price_UR_Test.xlsx
@@ -382,7 +382,7 @@
         <v>-2.137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -393,7 +393,7 @@
         <v>-0.989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.694</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
